--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquityAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquityAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C124B07-1373-4220-BE52-BB1EA75C6679}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B6F94-3EDE-47DD-AEE0-5DDF4B1275E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18075" windowHeight="12270" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquityCurve" sheetId="4" r:id="rId1"/>
@@ -2368,7 +2368,15 @@
     <definedName name="SettlementData">#REF!</definedName>
     <definedName name="StrikeQuoteUnits">[4]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4185,7 +4193,7 @@
       </c>
       <c r="C4" s="16">
         <f ca="1">C5</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4194,7 +4202,7 @@
       </c>
       <c r="C5" s="17">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -4398,7 +4406,7 @@
     <row r="31" spans="2:4">
       <c r="B31" s="26">
         <f t="array" aca="1" ref="B31:C35" ca="1">_xll.HLV5r3.Financial.Cache.GetTermCurve(C2)</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
       <c r="C31" s="62">
         <f ca="1"/>
@@ -4408,7 +4416,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="27">
         <f ca="1"/>
-        <v>43220</v>
+        <v>43643</v>
       </c>
       <c r="C32" s="63">
         <f ca="1"/>
@@ -4418,7 +4426,7 @@
     <row r="33" spans="2:3">
       <c r="B33" s="27">
         <f ca="1"/>
-        <v>43245</v>
+        <v>43670</v>
       </c>
       <c r="C33" s="63">
         <f ca="1"/>
@@ -4428,7 +4436,7 @@
     <row r="34" spans="2:3">
       <c r="B34" s="27">
         <f ca="1"/>
-        <v>43306</v>
+        <v>43732</v>
       </c>
       <c r="C34" s="63">
         <f ca="1"/>
@@ -4438,7 +4446,7 @@
     <row r="35" spans="2:3" ht="13.5" thickBot="1">
       <c r="B35" s="28">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43823</v>
       </c>
       <c r="C35" s="64">
         <f ca="1"/>
@@ -4454,7 +4462,7 @@
     <row r="38" spans="2:3">
       <c r="B38" s="26">
         <f ca="1">B31</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
       <c r="C38" s="62">
         <f t="array" aca="1" ref="C38:C42" ca="1">_xll.HLV5r3.Financial.Cache.GetValues(C2,B31:B35)</f>
@@ -4464,17 +4472,17 @@
     <row r="39" spans="2:3">
       <c r="B39" s="27">
         <f t="shared" ref="B39:B42" ca="1" si="0">B32</f>
-        <v>43220</v>
+        <v>43643</v>
       </c>
       <c r="C39" s="63">
         <f ca="1"/>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>43245</v>
+        <v>43670</v>
       </c>
       <c r="C40" s="63">
         <f ca="1"/>
@@ -4484,21 +4492,21 @@
     <row r="41" spans="2:3">
       <c r="B41" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>43306</v>
+        <v>43732</v>
       </c>
       <c r="C41" s="63">
         <f ca="1"/>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="13.5" thickBot="1">
       <c r="B42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43823</v>
       </c>
       <c r="C42" s="64">
         <f ca="1"/>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -4593,7 +4601,7 @@
       </c>
       <c r="D2" s="40" t="str">
         <f t="array" aca="1" ref="D2:D6" ca="1">_xll.HLV5r3.Financial.Cache.CreateAssetsWithProperties(A2:A6,B2:B6,C2:C6,D36:E38)</f>
-        <v>AUD-EquityForward-AAD.AU-0D-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-0D-98-24/06/2019</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>24</v>
@@ -4601,7 +4609,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="44" t="str">
         <f t="array" aca="1" ref="G2:P33" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(E2:E4, E35, D2:D6, E37)</f>
-        <v>AUD-EquityForward-AAD.AU-0D-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-0D-98-24/06/2019</v>
       </c>
       <c r="H2" s="45" t="str">
         <f ca="1"/>
@@ -4655,7 +4663,7 @@
       </c>
       <c r="D3" s="40" t="str">
         <f ca="1"/>
-        <v>AUD-Equity-AAD.AU-98-25/04/2018</v>
+        <v>AUD-Equity-AAD.AU-98-24/06/2019</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>38</v>
@@ -4663,7 +4671,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="47" t="str">
         <f ca="1"/>
-        <v>AUD-Equity-AAD.AU-98-25/04/2018</v>
+        <v>AUD-Equity-AAD.AU-98-24/06/2019</v>
       </c>
       <c r="H3" s="48" t="str">
         <f ca="1"/>
@@ -4717,7 +4725,7 @@
       </c>
       <c r="D4" s="40" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-1M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-1M-98-24/06/2019</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>36</v>
@@ -4725,7 +4733,7 @@
       <c r="F4" s="54"/>
       <c r="G4" s="47" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-1M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-1M-98-24/06/2019</v>
       </c>
       <c r="H4" s="48" t="str">
         <f ca="1"/>
@@ -4779,13 +4787,13 @@
       </c>
       <c r="D5" s="40" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-3M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-3M-98-24/06/2019</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="54"/>
       <c r="G5" s="47" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-3M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-3M-98-24/06/2019</v>
       </c>
       <c r="H5" s="48" t="str">
         <f ca="1"/>
@@ -4839,13 +4847,13 @@
       </c>
       <c r="D6" s="40" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-6M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-6M-98-24/06/2019</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
       <c r="G6" s="47" t="str">
         <f ca="1"/>
-        <v>AUD-EquityForward-AAD.AU-6M-98-25/04/2018</v>
+        <v>AUD-EquityForward-AAD.AU-6M-98-24/06/2019</v>
       </c>
       <c r="H6" s="48" t="str">
         <f ca="1"/>
@@ -6222,7 +6230,7 @@
       </c>
       <c r="E37" s="60">
         <f ca="1">EquityCurve!C5</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="38" spans="1:16">
